--- a/downloads/atom-import-template.xlsx
+++ b/downloads/atom-import-template.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10713"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11027"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/radancy/Documents/SFUWork/ArrangementDescription/Template/5_Descriptions/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/richarddancy/Downloads/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{129BDC3F-5C06-1A47-8808-70F62EB53EB0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E0584537-2AA0-E64F-8316-EDC9F27C06B4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1100" yWindow="820" windowWidth="28040" windowHeight="17440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="829" uniqueCount="465">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="833" uniqueCount="468">
   <si>
     <t>legacyId</t>
   </si>
@@ -1026,12 +1026,6 @@
     <t>Open, no restrictions</t>
   </si>
   <si>
-    <t>Open, reading room</t>
-  </si>
-  <si>
-    <t>Open, offline</t>
-  </si>
-  <si>
     <t>Open with enclosures</t>
   </si>
   <si>
@@ -1420,6 +1414,21 @@
   </si>
   <si>
     <t>Simon Fraser University Special Collections and Rare Books</t>
+  </si>
+  <si>
+    <t>Validate CSV in AtoM</t>
+  </si>
+  <si>
+    <t>Before importing into AtoM, use AtoM's Validate CSV page to identify errors.</t>
+  </si>
+  <si>
+    <t>Make corrections as needed until CSV validates</t>
+  </si>
+  <si>
+    <t>Multiple media</t>
+  </si>
+  <si>
+    <t>Open, reading room / offline</t>
   </si>
 </sst>
 </file>
@@ -1945,7 +1954,7 @@
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -1977,6 +1986,9 @@
     </xf>
     <xf numFmtId="0" fontId="16" fillId="33" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="43">
@@ -2038,9 +2050,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -2078,7 +2090,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -2184,7 +2196,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -2326,7 +2338,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -2334,11 +2346,9 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F65"/>
+  <dimension ref="A1:F69"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A21" workbookViewId="0">
-      <selection activeCell="C50" sqref="C50"/>
-    </sheetView>
+    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
@@ -2364,7 +2374,7 @@
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B4" s="4">
-        <v>45090</v>
+        <v>45608</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.2">
@@ -2525,7 +2535,7 @@
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A43" s="7" t="s">
-        <v>459</v>
+        <v>457</v>
       </c>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.2">
@@ -2558,7 +2568,7 @@
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B48" t="s">
-        <v>460</v>
+        <v>458</v>
       </c>
       <c r="C48"/>
     </row>
@@ -2595,46 +2605,61 @@
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A56" s="7" t="s">
-        <v>306</v>
+        <v>463</v>
       </c>
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A57" s="6" t="s">
-        <v>308</v>
-      </c>
-    </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A59" s="7" t="s">
-        <v>304</v>
+        <v>464</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A58" s="6" t="s">
+        <v>465</v>
       </c>
     </row>
     <row r="60" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A60" s="6" t="s">
-        <v>318</v>
+      <c r="A60" s="7" t="s">
+        <v>306</v>
       </c>
     </row>
     <row r="61" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A61" s="6" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A63" s="7" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A64" s="6" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="65" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A65" s="6" t="s">
         <v>319</v>
       </c>
     </row>
-    <row r="62" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A62" s="6" t="s">
+    <row r="66" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A66" s="6" t="s">
         <v>305</v>
       </c>
     </row>
-    <row r="63" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="B63" s="6" t="s">
+    <row r="67" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B67" s="6" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="64" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="B64" s="6" t="s">
+    <row r="68" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B68" s="6" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="65" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B65" s="6" t="s">
+    <row r="69" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B69" s="6" t="s">
         <v>16</v>
       </c>
     </row>
@@ -2645,11 +2670,9 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:W3"/>
+  <dimension ref="A1:X3"/>
   <sheetViews>
-    <sheetView topLeftCell="H1" workbookViewId="0">
-      <selection activeCell="W2" sqref="W2"/>
-    </sheetView>
+    <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
@@ -2659,16 +2682,17 @@
     <col min="6" max="6" width="25.33203125" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="16.33203125" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="21.5" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="15" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="15.33203125" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="11.83203125" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="18.1640625" bestFit="1" customWidth="1"/>
-    <col min="17" max="18" width="20" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="14.33203125" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="13.33203125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="21.5" customWidth="1"/>
+    <col min="12" max="12" width="15" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="15.33203125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="11.83203125" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="18.1640625" bestFit="1" customWidth="1"/>
+    <col min="18" max="19" width="20" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="14.33203125" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="13.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:24" ht="17" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -2696,50 +2720,53 @@
       <c r="I1" t="s">
         <v>25</v>
       </c>
-      <c r="J1" t="s">
+      <c r="J1" s="16" t="s">
+        <v>34</v>
+      </c>
+      <c r="K1" t="s">
         <v>38</v>
       </c>
-      <c r="K1" t="s">
+      <c r="L1" t="s">
         <v>43</v>
       </c>
-      <c r="L1" t="s">
+      <c r="M1" t="s">
         <v>66</v>
       </c>
-      <c r="M1" t="s">
+      <c r="N1" t="s">
         <v>67</v>
       </c>
-      <c r="N1" t="s">
+      <c r="O1" t="s">
         <v>69</v>
       </c>
-      <c r="O1" t="s">
+      <c r="P1" t="s">
         <v>72</v>
       </c>
-      <c r="P1" t="s">
+      <c r="Q1" t="s">
         <v>76</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="R1" t="s">
         <v>77</v>
       </c>
-      <c r="R1" t="s">
+      <c r="S1" t="s">
         <v>78</v>
       </c>
-      <c r="S1" t="s">
+      <c r="T1" t="s">
         <v>81</v>
       </c>
-      <c r="T1" t="s">
+      <c r="U1" t="s">
         <v>82</v>
       </c>
-      <c r="U1" t="s">
+      <c r="V1" t="s">
         <v>83</v>
       </c>
-      <c r="V1" t="s">
+      <c r="W1" t="s">
         <v>84</v>
       </c>
-      <c r="W1" t="s">
+      <c r="X1" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="2" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>1</v>
       </c>
@@ -2761,50 +2788,50 @@
       <c r="I2" t="s">
         <v>245</v>
       </c>
-      <c r="J2" t="s">
+      <c r="K2" t="s">
         <v>123</v>
       </c>
-      <c r="K2" t="s">
+      <c r="L2" t="s">
         <v>246</v>
       </c>
-      <c r="L2" t="s">
+      <c r="M2" t="s">
         <v>148</v>
       </c>
-      <c r="M2" t="s">
+      <c r="N2" t="s">
         <v>247</v>
       </c>
-      <c r="N2" t="s">
+      <c r="O2" t="s">
         <v>123</v>
       </c>
-      <c r="O2" t="s">
+      <c r="P2" t="s">
         <v>248</v>
       </c>
-      <c r="P2" t="s">
+      <c r="Q2" t="s">
         <v>249</v>
       </c>
-      <c r="Q2" t="s">
+      <c r="R2" t="s">
         <v>250</v>
       </c>
-      <c r="R2" t="s">
+      <c r="S2" t="s">
         <v>251</v>
       </c>
-      <c r="S2" t="s">
+      <c r="T2" t="s">
         <v>253</v>
       </c>
-      <c r="T2" t="s">
+      <c r="U2" t="s">
         <v>237</v>
-      </c>
-      <c r="U2" t="s">
-        <v>254</v>
       </c>
       <c r="V2" t="s">
         <v>254</v>
       </c>
       <c r="W2" t="s">
+        <v>254</v>
+      </c>
+      <c r="X2" t="s">
         <v>169</v>
       </c>
     </row>
-    <row r="3" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>2</v>
       </c>
@@ -2815,7 +2842,7 @@
         <v>241</v>
       </c>
       <c r="E3" t="s">
-        <v>171</v>
+        <v>258</v>
       </c>
       <c r="F3" t="s">
         <v>242</v>
@@ -2829,46 +2856,46 @@
       <c r="I3" t="s">
         <v>245</v>
       </c>
-      <c r="J3" t="s">
+      <c r="K3" t="s">
         <v>202</v>
       </c>
-      <c r="K3" t="s">
+      <c r="L3" t="s">
         <v>246</v>
       </c>
-      <c r="L3" t="s">
+      <c r="M3" t="s">
         <v>148</v>
       </c>
-      <c r="M3" t="s">
+      <c r="N3" t="s">
         <v>247</v>
       </c>
-      <c r="N3" t="s">
+      <c r="O3" t="s">
         <v>123</v>
       </c>
-      <c r="O3" t="s">
+      <c r="P3" t="s">
         <v>248</v>
       </c>
-      <c r="P3" t="s">
+      <c r="Q3" t="s">
         <v>252</v>
       </c>
-      <c r="Q3" t="s">
+      <c r="R3" t="s">
         <v>250</v>
       </c>
-      <c r="R3" t="s">
+      <c r="S3" t="s">
         <v>158</v>
       </c>
-      <c r="S3" t="s">
+      <c r="T3" t="s">
         <v>253</v>
       </c>
-      <c r="T3" t="s">
+      <c r="U3" t="s">
         <v>237</v>
-      </c>
-      <c r="U3" t="s">
-        <v>254</v>
       </c>
       <c r="V3" t="s">
         <v>254</v>
       </c>
       <c r="W3" t="s">
+        <v>254</v>
+      </c>
+      <c r="X3" t="s">
         <v>169</v>
       </c>
     </row>
@@ -2881,9 +2908,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:AM4"/>
   <sheetViews>
-    <sheetView topLeftCell="S1" workbookViewId="0">
-      <selection activeCell="H2" sqref="H2"/>
-    </sheetView>
+    <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
@@ -3280,9 +3305,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:CL3"/>
   <sheetViews>
-    <sheetView topLeftCell="BR1" workbookViewId="0">
-      <selection activeCell="CB29" sqref="CB29"/>
-    </sheetView>
+    <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
@@ -4060,9 +4083,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:F74"/>
   <sheetViews>
-    <sheetView topLeftCell="A48" workbookViewId="0">
-      <selection activeCell="A75" sqref="A75"/>
-    </sheetView>
+    <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
@@ -4096,7 +4117,7 @@
         <v>331</v>
       </c>
       <c r="B6" s="9" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.2">
@@ -4106,298 +4127,298 @@
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>333</v>
+        <v>467</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>337</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A13" t="s">
-        <v>338</v>
-      </c>
+        <v>336</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A14" s="10" t="s">
+        <v>66</v>
+      </c>
+      <c r="B14" s="11"/>
+      <c r="C14" s="11"/>
+      <c r="D14" s="11"/>
+      <c r="E14" s="11"/>
+      <c r="F14" s="11"/>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A15" s="10" t="s">
-        <v>66</v>
-      </c>
-      <c r="B15" s="11"/>
-      <c r="C15" s="11"/>
-      <c r="D15" s="11"/>
-      <c r="E15" s="11"/>
-      <c r="F15" s="11"/>
+      <c r="A15" s="8" t="s">
+        <v>326</v>
+      </c>
+      <c r="B15" t="s">
+        <v>327</v>
+      </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A16" s="8" t="s">
-        <v>326</v>
+        <v>148</v>
       </c>
       <c r="B16" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A17" s="8" t="s">
-        <v>148</v>
+        <v>329</v>
       </c>
       <c r="B17" t="s">
-        <v>328</v>
+        <v>330</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A18" s="8" t="s">
-        <v>329</v>
-      </c>
-      <c r="B18" t="s">
-        <v>330</v>
-      </c>
+      <c r="A18" s="8"/>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A19" s="8"/>
+      <c r="A19" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="B19" s="11"/>
+      <c r="C19" s="11"/>
+      <c r="D19" s="11"/>
+      <c r="E19" s="11"/>
+      <c r="F19" s="11"/>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A20" s="10" t="s">
-        <v>15</v>
-      </c>
-      <c r="B20" s="11"/>
-      <c r="C20" s="11"/>
-      <c r="D20" s="11"/>
-      <c r="E20" s="11"/>
-      <c r="F20" s="11"/>
+      <c r="A20" s="8" t="s">
+        <v>101</v>
+      </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A21" s="8" t="s">
-        <v>101</v>
+        <v>325</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A22" s="8" t="s">
-        <v>325</v>
+        <v>261</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A23" s="8" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A24" s="8" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A25" s="8" t="s">
-        <v>263</v>
+        <v>239</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A26" s="8" t="s">
-        <v>239</v>
+        <v>181</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A27" s="8" t="s">
-        <v>181</v>
-      </c>
+      <c r="A27" s="8"/>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A28" s="8"/>
+      <c r="A28" s="10" t="s">
+        <v>67</v>
+      </c>
+      <c r="B28" s="13" t="s">
+        <v>337</v>
+      </c>
+      <c r="C28" s="11"/>
+      <c r="D28" s="11"/>
+      <c r="E28" s="11"/>
+      <c r="F28" s="11"/>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A29" s="10" t="s">
-        <v>67</v>
-      </c>
-      <c r="B29" s="13" t="s">
-        <v>339</v>
-      </c>
-      <c r="C29" s="11"/>
-      <c r="D29" s="11"/>
-      <c r="E29" s="11"/>
-      <c r="F29" s="11"/>
+      <c r="A29" s="8" t="s">
+        <v>149</v>
+      </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A30" s="8" t="s">
-        <v>149</v>
+        <v>247</v>
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A31" s="8" t="s">
-        <v>247</v>
+        <v>338</v>
       </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A32" s="8" t="s">
-        <v>340</v>
-      </c>
+      <c r="A32" s="8"/>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A33" s="8"/>
+      <c r="A33" s="10" t="s">
+        <v>77</v>
+      </c>
+      <c r="B33" s="12"/>
+      <c r="C33" s="12"/>
+      <c r="D33" s="12"/>
+      <c r="E33" s="12"/>
+      <c r="F33" s="12"/>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A34" s="10" t="s">
-        <v>77</v>
-      </c>
-      <c r="B34" s="12"/>
-      <c r="C34" s="12"/>
-      <c r="D34" s="12"/>
-      <c r="E34" s="12"/>
-      <c r="F34" s="12"/>
+      <c r="A34" s="8" t="s">
+        <v>250</v>
+      </c>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A35" s="8" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A36" s="8" t="s">
-        <v>252</v>
-      </c>
+      <c r="A36" s="8"/>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A37" s="8"/>
+      <c r="A37" s="10" t="s">
+        <v>78</v>
+      </c>
+      <c r="B37" s="12"/>
+      <c r="C37" s="12"/>
+      <c r="D37" s="12"/>
+      <c r="E37" s="12"/>
+      <c r="F37" s="12"/>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A38" s="10" t="s">
-        <v>78</v>
-      </c>
-      <c r="B38" s="12"/>
-      <c r="C38" s="12"/>
-      <c r="D38" s="12"/>
-      <c r="E38" s="12"/>
-      <c r="F38" s="12"/>
+      <c r="A38" t="s">
+        <v>438</v>
+      </c>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
-        <v>440</v>
+        <v>251</v>
       </c>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
-        <v>251</v>
+        <v>439</v>
       </c>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
-        <v>446</v>
+        <v>158</v>
       </c>
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A47" t="s">
-        <v>158</v>
-      </c>
+      <c r="A47" s="8"/>
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A48" s="8"/>
+      <c r="A48" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="B48" s="12"/>
+      <c r="C48" s="12"/>
+      <c r="D48" s="12"/>
+      <c r="E48" s="12"/>
+      <c r="F48" s="12"/>
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A49" s="10" t="s">
-        <v>5</v>
-      </c>
-      <c r="B49" s="12"/>
-      <c r="C49" s="12"/>
-      <c r="D49" s="12"/>
-      <c r="E49" s="12"/>
-      <c r="F49" s="12"/>
+      <c r="A49" t="s">
+        <v>445</v>
+      </c>
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
     </row>
     <row r="55" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
-        <v>452</v>
+        <v>466</v>
       </c>
     </row>
     <row r="56" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
     </row>
     <row r="57" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
-        <v>454</v>
+        <v>452</v>
       </c>
     </row>
     <row r="58" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
-        <v>455</v>
+        <v>453</v>
       </c>
     </row>
     <row r="59" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
-        <v>456</v>
+        <v>454</v>
       </c>
     </row>
     <row r="60" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
     </row>
     <row r="61" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
-        <v>458</v>
+        <v>456</v>
       </c>
     </row>
     <row r="62" spans="1:6" x14ac:dyDescent="0.2">
@@ -4422,12 +4443,12 @@
     </row>
     <row r="66" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
-        <v>461</v>
+        <v>459</v>
       </c>
     </row>
     <row r="67" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
-        <v>462</v>
+        <v>460</v>
       </c>
     </row>
     <row r="69" spans="1:6" x14ac:dyDescent="0.2">
@@ -4442,12 +4463,12 @@
     </row>
     <row r="70" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
-        <v>463</v>
+        <v>461</v>
       </c>
     </row>
     <row r="71" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
-        <v>464</v>
+        <v>462</v>
       </c>
     </row>
     <row r="73" spans="1:6" x14ac:dyDescent="0.2">
@@ -4466,12 +4487,12 @@
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A15:A53">
-    <sortCondition ref="A15:A53"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A14:A52">
+    <sortCondition ref="A14:A52"/>
   </sortState>
   <hyperlinks>
     <hyperlink ref="B6" r:id="rId1" xr:uid="{00000000-0004-0000-0400-000000000000}"/>
-    <hyperlink ref="B29" r:id="rId2" xr:uid="{00000000-0004-0000-0400-000001000000}"/>
+    <hyperlink ref="B28" r:id="rId2" xr:uid="{00000000-0004-0000-0400-000001000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -4479,11 +4500,9 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
-  <dimension ref="A1:D94"/>
+  <dimension ref="A1:D93"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="C28" sqref="C28"/>
-    </sheetView>
+    <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
@@ -4495,738 +4514,749 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A3" s="12" t="s">
+        <v>340</v>
+      </c>
+      <c r="B3" s="15" t="s">
+        <v>374</v>
+      </c>
+      <c r="C3" s="12" t="s">
         <v>341</v>
       </c>
+      <c r="D3" s="12" t="s">
+        <v>379</v>
+      </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A4" s="12" t="s">
-        <v>342</v>
-      </c>
-      <c r="B4" s="15" t="s">
-        <v>376</v>
-      </c>
-      <c r="C4" s="12" t="s">
-        <v>343</v>
-      </c>
-      <c r="D4" s="12" t="s">
-        <v>381</v>
+      <c r="A4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="14" t="s">
+        <v>375</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>0</v>
-      </c>
-      <c r="B5" s="14" t="s">
-        <v>377</v>
+        <v>1</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>1</v>
+        <v>2</v>
+      </c>
+      <c r="C6" t="s">
+        <v>342</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>2</v>
-      </c>
-      <c r="C7" t="s">
-        <v>344</v>
+        <v>3</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>3</v>
+        <v>4</v>
+      </c>
+      <c r="B8" s="14" t="s">
+        <v>375</v>
+      </c>
+      <c r="C8" t="s">
+        <v>343</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>431</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B9" s="14" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
       <c r="C9" t="s">
-        <v>345</v>
+        <v>437</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>433</v>
+        <v>431</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>5</v>
-      </c>
-      <c r="B10" s="14" t="s">
-        <v>377</v>
+        <v>6</v>
       </c>
       <c r="C10" t="s">
-        <v>439</v>
+        <v>344</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>433</v>
+        <v>431</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C11" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>433</v>
+        <v>431</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C12" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>433</v>
+        <v>431</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C13" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>433</v>
+        <v>431</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C14" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>433</v>
+        <v>431</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C15" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>433</v>
+        <v>431</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>11</v>
+        <v>12</v>
+      </c>
+      <c r="B16" s="14" t="s">
+        <v>375</v>
       </c>
       <c r="C16" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>433</v>
+        <v>431</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>12</v>
-      </c>
-      <c r="B17" s="14" t="s">
-        <v>377</v>
+        <v>13</v>
       </c>
       <c r="C17" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>433</v>
+        <v>431</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C18" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>433</v>
+        <v>431</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>14</v>
+        <v>15</v>
+      </c>
+      <c r="B19" s="14" t="s">
+        <v>375</v>
       </c>
       <c r="C19" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>433</v>
+        <v>431</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>15</v>
-      </c>
-      <c r="B20" s="14" t="s">
-        <v>377</v>
+        <v>16</v>
       </c>
       <c r="C20" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>433</v>
+        <v>431</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>16</v>
+        <v>17</v>
+      </c>
+      <c r="B21" s="14" t="s">
+        <v>375</v>
       </c>
       <c r="C21" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>433</v>
+        <v>431</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>17</v>
-      </c>
-      <c r="B22" s="14" t="s">
-        <v>377</v>
+        <v>18</v>
       </c>
       <c r="C22" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C23" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>434</v>
+        <v>432</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C24" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C25" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>435</v>
+        <v>433</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C26" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>435</v>
+        <v>433</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C27" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>435</v>
+        <v>433</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C28" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>435</v>
+        <v>433</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
-        <v>24</v>
+        <v>25</v>
+      </c>
+      <c r="B29" s="14" t="s">
+        <v>375</v>
       </c>
       <c r="C29" t="s">
-        <v>366</v>
+        <v>372</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>435</v>
+        <v>436</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
-        <v>25</v>
-      </c>
-      <c r="B30" s="14" t="s">
-        <v>377</v>
+        <v>26</v>
       </c>
       <c r="C30" t="s">
-        <v>374</v>
-      </c>
-      <c r="D30" s="2" t="s">
-        <v>438</v>
+        <v>373</v>
+      </c>
+      <c r="D30" t="s">
+        <v>384</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C31" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="D31" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C32" t="s">
-        <v>378</v>
+        <v>381</v>
       </c>
       <c r="D32" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C33" t="s">
-        <v>383</v>
+        <v>377</v>
       </c>
       <c r="D33" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C34" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="D34" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C35" t="s">
         <v>380</v>
       </c>
       <c r="D35" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
-        <v>31</v>
-      </c>
-      <c r="C36" t="s">
-        <v>382</v>
-      </c>
-      <c r="D36" t="s">
-        <v>386</v>
+        <v>32</v>
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
-        <v>32</v>
+        <v>33</v>
+      </c>
+      <c r="B37" s="14" t="s">
+        <v>375</v>
+      </c>
+      <c r="C37" t="s">
+        <v>382</v>
+      </c>
+      <c r="D37" t="s">
+        <v>383</v>
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B38" s="14" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
       <c r="C38" t="s">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="D38" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
-        <v>34</v>
-      </c>
-      <c r="B39" s="14" t="s">
-        <v>377</v>
+        <v>35</v>
       </c>
       <c r="C39" t="s">
+        <v>386</v>
+      </c>
+      <c r="D39" t="s">
         <v>387</v>
-      </c>
-      <c r="D39" t="s">
-        <v>385</v>
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C40" t="s">
         <v>388</v>
       </c>
       <c r="D40" t="s">
-        <v>389</v>
+        <v>387</v>
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
-        <v>36</v>
+        <v>37</v>
+      </c>
+      <c r="B41" s="14" t="s">
+        <v>375</v>
       </c>
       <c r="C41" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="D41" t="s">
-        <v>389</v>
+        <v>387</v>
       </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B42" s="14" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
       <c r="C42" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="D42" t="s">
-        <v>389</v>
+        <v>387</v>
       </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
-        <v>38</v>
-      </c>
-      <c r="B43" s="14" t="s">
-        <v>377</v>
+        <v>39</v>
       </c>
       <c r="C43" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="D43" t="s">
-        <v>389</v>
+        <v>387</v>
       </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
-        <v>39</v>
+        <v>40</v>
+      </c>
+      <c r="B44" s="14" t="s">
+        <v>375</v>
       </c>
       <c r="C44" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="D44" t="s">
-        <v>389</v>
+        <v>387</v>
       </c>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
-        <v>40</v>
-      </c>
-      <c r="B45" s="14" t="s">
-        <v>377</v>
+        <v>41</v>
       </c>
       <c r="C45" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="D45" t="s">
-        <v>389</v>
+        <v>387</v>
       </c>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
-        <v>41</v>
+        <v>42</v>
+      </c>
+      <c r="B46" s="14" t="s">
+        <v>375</v>
       </c>
       <c r="C46" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="D46" t="s">
-        <v>389</v>
+        <v>387</v>
       </c>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B47" s="14" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
       <c r="C47" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="D47" t="s">
-        <v>389</v>
+        <v>387</v>
       </c>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B48" s="14" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
       <c r="C48" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="D48" t="s">
-        <v>389</v>
+        <v>387</v>
       </c>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B49" s="14" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
       <c r="C49" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="D49" t="s">
-        <v>389</v>
+        <v>387</v>
       </c>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B50" s="14" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
       <c r="C50" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="D50" t="s">
-        <v>389</v>
+        <v>387</v>
       </c>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B51" s="14" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
       <c r="C51" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="D51" t="s">
-        <v>389</v>
+        <v>387</v>
       </c>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
-        <v>47</v>
-      </c>
-      <c r="B52" s="14" t="s">
-        <v>377</v>
+        <v>48</v>
       </c>
       <c r="C52" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="D52" t="s">
-        <v>389</v>
+        <v>387</v>
       </c>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C53" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="D53" t="s">
-        <v>389</v>
+        <v>387</v>
       </c>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C54" t="s">
         <v>403</v>
       </c>
       <c r="D54" t="s">
-        <v>389</v>
+        <v>387</v>
       </c>
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C55" t="s">
         <v>405</v>
       </c>
       <c r="D55" t="s">
-        <v>389</v>
+        <v>387</v>
       </c>
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C56" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="D56" t="s">
-        <v>389</v>
+        <v>387</v>
       </c>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C57" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="D57" t="s">
-        <v>389</v>
+        <v>387</v>
       </c>
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C58" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="D58" t="s">
-        <v>389</v>
+        <v>387</v>
       </c>
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C59" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="D59" t="s">
-        <v>389</v>
+        <v>387</v>
       </c>
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C60" t="s">
-        <v>411</v>
+        <v>402</v>
       </c>
       <c r="D60" t="s">
-        <v>389</v>
+        <v>387</v>
       </c>
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C61" t="s">
         <v>404</v>
       </c>
       <c r="D61" t="s">
-        <v>389</v>
+        <v>387</v>
       </c>
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C62" t="s">
-        <v>406</v>
+        <v>411</v>
       </c>
       <c r="D62" t="s">
-        <v>389</v>
+        <v>412</v>
       </c>
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C63" t="s">
         <v>413</v>
       </c>
       <c r="D63" t="s">
-        <v>414</v>
+        <v>417</v>
       </c>
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C64" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="D64" t="s">
-        <v>419</v>
+        <v>417</v>
       </c>
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
-        <v>60</v>
+        <v>61</v>
+      </c>
+      <c r="B65" s="14" t="s">
+        <v>375</v>
       </c>
       <c r="C65" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="D65" t="s">
-        <v>419</v>
+        <v>417</v>
       </c>
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
-        <v>61</v>
-      </c>
-      <c r="B66" s="14" t="s">
-        <v>377</v>
+        <v>62</v>
       </c>
       <c r="C66" t="s">
+        <v>416</v>
+      </c>
+      <c r="D66" t="s">
         <v>417</v>
-      </c>
-      <c r="D66" t="s">
-        <v>419</v>
       </c>
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C67" t="s">
         <v>418</v>
@@ -5237,283 +5267,272 @@
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C68" t="s">
         <v>420</v>
       </c>
       <c r="D68" t="s">
-        <v>421</v>
+        <v>419</v>
       </c>
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
-        <v>64</v>
+        <v>65</v>
+      </c>
+      <c r="B69" s="14" t="s">
+        <v>101</v>
       </c>
       <c r="C69" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="D69" t="s">
-        <v>421</v>
+        <v>419</v>
       </c>
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B70" s="14" t="s">
-        <v>101</v>
+        <v>375</v>
       </c>
       <c r="C70" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="D70" t="s">
-        <v>421</v>
+        <v>419</v>
       </c>
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B71" s="14" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
       <c r="C71" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="D71" t="s">
-        <v>421</v>
+        <v>419</v>
       </c>
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="B72" s="14" t="s">
-        <v>377</v>
+        <v>428</v>
       </c>
       <c r="C72" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="D72" t="s">
-        <v>421</v>
+        <v>419</v>
       </c>
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B73" s="14" t="s">
-        <v>430</v>
+        <v>375</v>
       </c>
       <c r="C73" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="D73" t="s">
-        <v>421</v>
+        <v>419</v>
       </c>
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A74" t="s">
-        <v>69</v>
-      </c>
-      <c r="B74" s="14" t="s">
-        <v>377</v>
+        <v>70</v>
       </c>
       <c r="C74" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="D74" t="s">
-        <v>421</v>
+        <v>419</v>
       </c>
     </row>
     <row r="75" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A75" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="C75" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="D75" t="s">
-        <v>421</v>
+        <v>419</v>
       </c>
     </row>
     <row r="76" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A76" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="C76" t="s">
         <v>429</v>
       </c>
       <c r="D76" t="s">
-        <v>421</v>
+        <v>430</v>
       </c>
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A77" t="s">
-        <v>72</v>
-      </c>
-      <c r="C77" t="s">
-        <v>431</v>
-      </c>
-      <c r="D77" t="s">
-        <v>432</v>
+        <v>73</v>
       </c>
     </row>
     <row r="78" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A78" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
     </row>
     <row r="79" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A79" t="s">
-        <v>74</v>
+        <v>75</v>
+      </c>
+      <c r="C79" t="s">
+        <v>410</v>
+      </c>
+      <c r="D79" t="s">
+        <v>387</v>
       </c>
     </row>
     <row r="80" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A80" t="s">
-        <v>75</v>
-      </c>
-      <c r="C80" t="s">
-        <v>412</v>
-      </c>
-      <c r="D80" t="s">
-        <v>389</v>
+        <v>76</v>
       </c>
     </row>
     <row r="81" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A81" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="82" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A82" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="83" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A83" t="s">
-        <v>78</v>
+        <v>79</v>
+      </c>
+      <c r="C83" t="s">
+        <v>356</v>
+      </c>
+      <c r="D83" t="s">
+        <v>431</v>
       </c>
     </row>
     <row r="84" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A84" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="C84" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="D84" t="s">
-        <v>433</v>
+        <v>431</v>
       </c>
     </row>
     <row r="85" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A85" t="s">
-        <v>80</v>
+        <v>81</v>
+      </c>
+      <c r="B85" s="14" t="s">
+        <v>375</v>
       </c>
       <c r="C85" t="s">
-        <v>359</v>
+        <v>367</v>
       </c>
       <c r="D85" t="s">
-        <v>433</v>
+        <v>435</v>
       </c>
     </row>
     <row r="86" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A86" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="B86" s="14" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
       <c r="C86" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="D86" t="s">
-        <v>437</v>
+        <v>435</v>
       </c>
     </row>
     <row r="87" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A87" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="B87" s="14" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
       <c r="C87" t="s">
         <v>370</v>
       </c>
       <c r="D87" t="s">
-        <v>437</v>
+        <v>435</v>
       </c>
     </row>
     <row r="88" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A88" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="B88" s="14" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
       <c r="C88" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="D88" t="s">
-        <v>437</v>
+        <v>435</v>
       </c>
     </row>
     <row r="89" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A89" t="s">
-        <v>84</v>
-      </c>
-      <c r="B89" s="14" t="s">
-        <v>377</v>
+        <v>85</v>
       </c>
       <c r="C89" t="s">
-        <v>373</v>
+        <v>369</v>
       </c>
       <c r="D89" t="s">
-        <v>437</v>
+        <v>435</v>
       </c>
     </row>
     <row r="90" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A90" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="C90" t="s">
-        <v>371</v>
+        <v>365</v>
       </c>
       <c r="D90" t="s">
-        <v>437</v>
+        <v>434</v>
       </c>
     </row>
     <row r="91" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A91" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="C91" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="D91" t="s">
-        <v>436</v>
+        <v>434</v>
       </c>
     </row>
     <row r="92" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A92" t="s">
-        <v>87</v>
-      </c>
-      <c r="C92" t="s">
-        <v>368</v>
-      </c>
-      <c r="D92" t="s">
-        <v>436</v>
+        <v>88</v>
       </c>
     </row>
     <row r="93" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A93" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="94" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A94" t="s">
         <v>89</v>
       </c>
     </row>
